--- a/data/trans_bre/P1428-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1428-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.27009407198869</v>
+        <v>16.12932108414361</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.25343795837048</v>
+        <v>9.86469402827942</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.03289578121912</v>
+        <v>9.684251646882808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.31996660127713</v>
+        <v>17.23085430021464</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9243117177447103</v>
+        <v>0.9440334827667405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7783944765142978</v>
+        <v>0.732760580382686</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.051861728138763</v>
+        <v>0.9854208883191869</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>1.232251363867218</v>
+        <v>1.192636081590682</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.18055289631701</v>
+        <v>22.93107178000294</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.35598641868789</v>
+        <v>16.19978761307863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.39115936413345</v>
+        <v>16.16795536416126</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.25475040337566</v>
+        <v>24.1762163102156</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.638317615778654</v>
+        <v>1.658207567588116</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.654474661000979</v>
+        <v>1.580977293155653</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.515587455443479</v>
+        <v>2.489523612312354</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.361068646373808</v>
+        <v>2.401427710992481</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.910526383098249</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.29364276942842</v>
+        <v>5.293642769428422</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8543782943871836</v>
@@ -749,7 +749,7 @@
         <v>1.210074989607939</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.214353220309044</v>
+        <v>1.214353220309045</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.527657127196582</v>
+        <v>1.662115297277289</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9095743446908238</v>
+        <v>0.9836811253470567</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.771694952024762</v>
+        <v>1.661971666568784</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.002844990981718</v>
+        <v>4.025771952090108</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3242054842681353</v>
+        <v>0.3784249510683711</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2386729953327154</v>
+        <v>0.3122294953726088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5968380215526136</v>
+        <v>0.5626087554217366</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.80461546010026</v>
+        <v>0.7870979661892209</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.681890330526937</v>
+        <v>4.711898425785637</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.73987036730456</v>
+        <v>3.741652504841089</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.217274819552417</v>
+        <v>4.122782504698479</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.679586674551068</v>
+        <v>6.746590095295694</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.521729402432144</v>
+        <v>1.60887089059257</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.671114612121234</v>
+        <v>1.845335979205761</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.302255184237452</v>
+        <v>2.069909180985882</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.787752074581682</v>
+        <v>1.770282383178325</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.354990109309422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.121719944025425</v>
+        <v>5.121719944025426</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.185272332928596</v>
@@ -849,7 +849,7 @@
         <v>0.7868870797053455</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.991445960466497</v>
+        <v>1.991445960466498</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.581179201501613</v>
+        <v>0.6357839527599908</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.194212128037924</v>
+        <v>-0.01726542044061695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.57431126988516</v>
+        <v>-0.3982803325722866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.063952419350032</v>
+        <v>3.068398889140604</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07529775771135611</v>
+        <v>0.1198636387782614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08221338691946159</v>
+        <v>-0.1409723243236269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3417836551045856</v>
+        <v>-0.2735712485838601</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.8197360241723821</v>
+        <v>0.7579283780426678</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.724499226429932</v>
+        <v>5.761266267090955</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.827350116747247</v>
+        <v>5.372926329613451</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.475670799368674</v>
+        <v>3.441640097218267</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.042173072696166</v>
+        <v>6.972757298039188</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.820455998328489</v>
+        <v>3.563140180985761</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.739484519518861</v>
+        <v>4.701045058991993</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.493462830819839</v>
+        <v>4.047142727334224</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.1579850039176</v>
+        <v>3.87774498949769</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.822471690781239</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.100430471812089</v>
+        <v>9.100430471812087</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.445201286065596</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.772134973954742</v>
+        <v>8.976453310273346</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.91096508638451</v>
+        <v>5.877116177518439</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.534951970206453</v>
+        <v>4.603135429130478</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.979640314210211</v>
+        <v>7.889646171801794</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.125304265752564</v>
+        <v>1.158725382549788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.013171640652171</v>
+        <v>1.009617968215182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.122973157963458</v>
+        <v>1.144407086012404</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.345141752523867</v>
+        <v>1.331095289977277</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.0654681137419</v>
+        <v>12.14806838705491</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.694398842331044</v>
+        <v>8.58334425539517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.021095796027205</v>
+        <v>7.058016244163697</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.2400842573557</v>
+        <v>10.17101013493023</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.845550677639348</v>
+        <v>1.872995192185159</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.919354225051742</v>
+        <v>1.859723384003739</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.237779183789404</v>
+        <v>2.240236360044849</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.180549620940537</v>
+        <v>2.133581349427992</v>
       </c>
     </row>
     <row r="16">
